--- a/src/fr_elect_prod_data.xlsx
+++ b/src/fr_elect_prod_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arobinson\BW25\pharma-project\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6090E602-7A88-4B0D-ACB4-E3452844A4B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9927A6D9-D21F-48DB-8DF6-B594BA4882B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" xr2:uid="{64A410F9-7F1D-44B5-8AD8-ECB04E78B2B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="50">
   <si>
     <t>00:00 - 01:00</t>
   </si>
@@ -126,145 +126,7 @@
     <t>05.01.2024</t>
   </si>
   <si>
-    <t>05.01.2025</t>
-  </si>
-  <si>
-    <t>05.01.2026</t>
-  </si>
-  <si>
-    <t>05.01.2027</t>
-  </si>
-  <si>
-    <t>05.01.2028</t>
-  </si>
-  <si>
-    <t>05.01.2029</t>
-  </si>
-  <si>
-    <t>05.01.2030</t>
-  </si>
-  <si>
-    <t>05.01.2031</t>
-  </si>
-  <si>
-    <t>05.01.2032</t>
-  </si>
-  <si>
-    <t>05.01.2033</t>
-  </si>
-  <si>
-    <t>05.01.2034</t>
-  </si>
-  <si>
-    <t>05.01.2035</t>
-  </si>
-  <si>
-    <t>05.01.2036</t>
-  </si>
-  <si>
-    <t>05.01.2037</t>
-  </si>
-  <si>
-    <t>05.01.2038</t>
-  </si>
-  <si>
-    <t>05.01.2039</t>
-  </si>
-  <si>
-    <t>05.01.2040</t>
-  </si>
-  <si>
-    <t>05.01.2041</t>
-  </si>
-  <si>
-    <t>05.01.2042</t>
-  </si>
-  <si>
-    <t>05.01.2043</t>
-  </si>
-  <si>
-    <t>05.01.2044</t>
-  </si>
-  <si>
-    <t>05.01.2045</t>
-  </si>
-  <si>
-    <t>05.01.2046</t>
-  </si>
-  <si>
-    <t>05.01.2047</t>
-  </si>
-  <si>
     <t>15.08.2024</t>
-  </si>
-  <si>
-    <t>15.08.2025</t>
-  </si>
-  <si>
-    <t>15.08.2026</t>
-  </si>
-  <si>
-    <t>15.08.2027</t>
-  </si>
-  <si>
-    <t>15.08.2028</t>
-  </si>
-  <si>
-    <t>15.08.2029</t>
-  </si>
-  <si>
-    <t>15.08.2030</t>
-  </si>
-  <si>
-    <t>15.08.2031</t>
-  </si>
-  <si>
-    <t>15.08.2032</t>
-  </si>
-  <si>
-    <t>15.08.2033</t>
-  </si>
-  <si>
-    <t>15.08.2034</t>
-  </si>
-  <si>
-    <t>15.08.2035</t>
-  </si>
-  <si>
-    <t>15.08.2036</t>
-  </si>
-  <si>
-    <t>15.08.2037</t>
-  </si>
-  <si>
-    <t>15.08.2038</t>
-  </si>
-  <si>
-    <t>15.08.2039</t>
-  </si>
-  <si>
-    <t>15.08.2040</t>
-  </si>
-  <si>
-    <t>15.08.2041</t>
-  </si>
-  <si>
-    <t>15.08.2042</t>
-  </si>
-  <si>
-    <t>15.08.2043</t>
-  </si>
-  <si>
-    <t>15.08.2044</t>
-  </si>
-  <si>
-    <t>15.08.2045</t>
-  </si>
-  <si>
-    <t>15.08.2046</t>
-  </si>
-  <si>
-    <t>15.08.2047</t>
   </si>
   <si>
     <t>Date</t>
@@ -666,60 +528,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA73E639-B964-4E3B-9C2C-5D60F67EDA08}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
         <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="P1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="Q1" t="s">
         <v>27</v>
@@ -731,7 +594,7 @@
         <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="U1" t="s">
         <v>30</v>
@@ -740,10 +603,10 @@
         <v>31</v>
       </c>
       <c r="W1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="X1" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -819,7 +682,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -890,7 +753,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -961,7 +824,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1032,7 +895,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1103,7 +966,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1174,7 +1037,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1245,7 +1108,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1316,7 +1179,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1387,7 +1250,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1458,7 +1321,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1529,7 +1392,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1600,7 +1463,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1671,7 +1534,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1742,7 +1605,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1813,7 +1676,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1884,7 +1747,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1955,7 +1818,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -2026,7 +1889,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -2097,7 +1960,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -2168,7 +2031,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2239,7 +2102,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2310,7 +2173,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -2381,7 +2244,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -2452,7 +2315,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -2523,7 +2386,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -2594,7 +2457,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2665,7 +2528,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -2736,7 +2599,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -2807,7 +2670,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -2878,7 +2741,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -2949,7 +2812,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -3020,7 +2883,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -3091,7 +2954,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -3162,7 +3025,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3233,7 +3096,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -3304,7 +3167,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -3375,7 +3238,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -3446,7 +3309,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -3517,7 +3380,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -3588,7 +3451,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -3659,7 +3522,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -3730,7 +3593,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -3801,7 +3664,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -3872,7 +3735,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -3943,7 +3806,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -4014,7 +3877,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -4085,7 +3948,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
